--- a/Test2/Book1.xlsx
+++ b/Test2/Book1.xlsx
@@ -725,11 +725,11 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test2/Book1.xlsx
+++ b/Test2/Book1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$O$70</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -640,7 +640,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,9 +738,12 @@
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1377,7 +1380,7 @@
       <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="N43" t="s">
+      <c r="J43" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1763,7 +1766,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:O70"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
